--- a/1.12.ss.处理.1668.xlsx
+++ b/1.12.ss.处理.1668.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workroom\send_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A79768-0304-42FE-9288-D57CA0659B2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118B2676-C3AB-4D03-8DF9-BB68F263A1F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22710" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="352">
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>2019-01-12 07:11:41</t>
-  </si>
-  <si>
-    <t>王毅</t>
-  </si>
-  <si>
-    <t>13784590714</t>
-  </si>
-  <si>
     <t>吕增武</t>
   </si>
   <si>
@@ -52,15 +43,6 @@
     <t>5.33E+17</t>
   </si>
   <si>
-    <t>2019-01-12 07:05:41</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:04:33</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:00:50</t>
-  </si>
-  <si>
     <t>2019-01-12 08:37:17</t>
   </si>
   <si>
@@ -76,12 +58,6 @@
     <t>13634567409</t>
   </si>
   <si>
-    <t>2019-01-12 08:05:55</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:38:04</t>
-  </si>
-  <si>
     <t>2019-01-12 08:00:27</t>
   </si>
   <si>
@@ -91,15 +67,6 @@
     <t>2019-01-12 07:00:04</t>
   </si>
   <si>
-    <t>2019-01-12 07:07:43</t>
-  </si>
-  <si>
-    <t>贺忠文</t>
-  </si>
-  <si>
-    <t>18602798561</t>
-  </si>
-  <si>
     <t>2019-01-12 07:06:10</t>
   </si>
   <si>
@@ -115,24 +82,15 @@
     <t>2019-01-12 08:30:06</t>
   </si>
   <si>
-    <t>2019-01-12 08:47:00</t>
-  </si>
-  <si>
     <t>2019-01-12 08:36:26</t>
   </si>
   <si>
     <t>2019-01-12 08:20:30</t>
   </si>
   <si>
-    <t>2019-01-12 08:43:51</t>
-  </si>
-  <si>
     <t>2019-01-12 07:41:40</t>
   </si>
   <si>
-    <t>赵明顺</t>
-  </si>
-  <si>
     <t>2019-01-12 07:03:18</t>
   </si>
   <si>
@@ -145,27 +103,12 @@
     <t>13340967131</t>
   </si>
   <si>
-    <t>2019-01-12 07:45:54</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:23:15</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:05:15</t>
-  </si>
-  <si>
     <t>2019-01-12 07:48:09</t>
   </si>
   <si>
-    <t>2019-01-12 07:36:18</t>
-  </si>
-  <si>
     <t>2019-01-12 08:19:02</t>
   </si>
   <si>
-    <t>2019-01-12 08:36:48</t>
-  </si>
-  <si>
     <t>13132147937</t>
   </si>
   <si>
@@ -184,39 +127,18 @@
     <t>2019-01-12 07:49:57</t>
   </si>
   <si>
-    <t>2019-01-12 08:15:33</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:21:01</t>
-  </si>
-  <si>
     <t>2019-01-12 08:02:21</t>
   </si>
   <si>
     <t>2019-01-12 08:05:03</t>
   </si>
   <si>
-    <t>2019-01-12 07:28:39</t>
-  </si>
-  <si>
     <t>2019-01-12 08:09:19</t>
   </si>
   <si>
-    <t>蒋敏</t>
-  </si>
-  <si>
-    <t>15825981717</t>
-  </si>
-  <si>
     <t>2019-01-12 08:03:30</t>
   </si>
   <si>
-    <t>毕双琴</t>
-  </si>
-  <si>
-    <t>17316089078</t>
-  </si>
-  <si>
     <t>芦凯明</t>
   </si>
   <si>
@@ -1154,747 +1076,6 @@
   </si>
   <si>
     <t>2019-01-12 08:08:59</t>
-  </si>
-  <si>
-    <t>15629076286</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:20:34</t>
-  </si>
-  <si>
-    <t>18801034944</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:37:11</t>
-  </si>
-  <si>
-    <t>李安顺</t>
-  </si>
-  <si>
-    <t>15207696794</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:41:34</t>
-  </si>
-  <si>
-    <t>15060049600</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:31:11</t>
-  </si>
-  <si>
-    <t>17674108590</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:24:31</t>
-  </si>
-  <si>
-    <t>15037262727</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:46:57</t>
-  </si>
-  <si>
-    <t>13005409431</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:42:56</t>
-  </si>
-  <si>
-    <t>13546184630</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:40:08</t>
-  </si>
-  <si>
-    <t>何广峰</t>
-  </si>
-  <si>
-    <t>13477765984</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:40:30</t>
-  </si>
-  <si>
-    <t>18040432701</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:15:38</t>
-  </si>
-  <si>
-    <t>13232976944</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:27:16</t>
-  </si>
-  <si>
-    <t>汪霖</t>
-  </si>
-  <si>
-    <t>18786812140</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:23:22</t>
-  </si>
-  <si>
-    <t>黄远攀</t>
-  </si>
-  <si>
-    <t>15077548736</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:26:29</t>
-  </si>
-  <si>
-    <t>17551012806</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:44:37</t>
-  </si>
-  <si>
-    <t>18724930128</t>
-  </si>
-  <si>
-    <t>吴术华</t>
-  </si>
-  <si>
-    <t>17328449534</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:31:38</t>
-  </si>
-  <si>
-    <t>13508289572</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:10:02</t>
-  </si>
-  <si>
-    <t>武丁启</t>
-  </si>
-  <si>
-    <t>15155792624</t>
-  </si>
-  <si>
-    <t>15968763677</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:01:28</t>
-  </si>
-  <si>
-    <t>15329775298</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:22:11</t>
-  </si>
-  <si>
-    <t>曾琳华</t>
-  </si>
-  <si>
-    <t>13299653770</t>
-  </si>
-  <si>
-    <t>4.51E+17</t>
-  </si>
-  <si>
-    <t>安徽省合肥市包河区想你的难道你</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:01:28</t>
-  </si>
-  <si>
-    <t>陈冬在不在</t>
-  </si>
-  <si>
-    <t>17313599312</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:36:29</t>
-  </si>
-  <si>
-    <t>17604875737</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:30:46</t>
-  </si>
-  <si>
-    <t>代媛媛</t>
-  </si>
-  <si>
-    <t>18872292272</t>
-  </si>
-  <si>
-    <t>13597917034</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:58:55</t>
-  </si>
-  <si>
-    <t>黄宜杰</t>
-  </si>
-  <si>
-    <t>15914783439</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:32:48</t>
-  </si>
-  <si>
-    <t>班德</t>
-  </si>
-  <si>
-    <t>18274736516</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:55:37</t>
-  </si>
-  <si>
-    <t>谢二飞</t>
-  </si>
-  <si>
-    <t>18385416821</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:55:43</t>
-  </si>
-  <si>
-    <t>黄鑫</t>
-  </si>
-  <si>
-    <t>18695447040</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:34:34</t>
-  </si>
-  <si>
-    <t>卢崇波</t>
-  </si>
-  <si>
-    <t>13116625317</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:16:41</t>
-  </si>
-  <si>
-    <t>王杰</t>
-  </si>
-  <si>
-    <t>15621416333</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:12:30</t>
-  </si>
-  <si>
-    <t>宋志学</t>
-  </si>
-  <si>
-    <t>13720501925</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:09:59</t>
-  </si>
-  <si>
-    <t>龚文杰</t>
-  </si>
-  <si>
-    <t>18081310322</t>
-  </si>
-  <si>
-    <t>仝心房</t>
-  </si>
-  <si>
-    <t>15230496350</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:59:52</t>
-  </si>
-  <si>
-    <t>13858829278</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:00:00</t>
-  </si>
-  <si>
-    <t>杨承干</t>
-  </si>
-  <si>
-    <t>13737995852</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:11:10</t>
-  </si>
-  <si>
-    <t>15884286475</t>
-  </si>
-  <si>
-    <t>谌乾</t>
-  </si>
-  <si>
-    <t>18916852268</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:04:26</t>
-  </si>
-  <si>
-    <t>富小溪</t>
-  </si>
-  <si>
-    <t>13032990000</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:36:56</t>
-  </si>
-  <si>
-    <t>15095130681</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:43:50</t>
-  </si>
-  <si>
-    <t>18674862329</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:15:07</t>
-  </si>
-  <si>
-    <t>黄金坚</t>
-  </si>
-  <si>
-    <t>18302016735</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:04:06</t>
-  </si>
-  <si>
-    <t>刘浩楠</t>
-  </si>
-  <si>
-    <t>15733522301</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:40:50</t>
-  </si>
-  <si>
-    <t>王亮</t>
-  </si>
-  <si>
-    <t>13555116309</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:41:53</t>
-  </si>
-  <si>
-    <t>13738445296</t>
-  </si>
-  <si>
-    <t>孙壮</t>
-  </si>
-  <si>
-    <t>18766661917</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:50:10</t>
-  </si>
-  <si>
-    <t>胡玉花</t>
-  </si>
-  <si>
-    <t>18770835391</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:44:59</t>
-  </si>
-  <si>
-    <t>18307638852</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:03:52</t>
-  </si>
-  <si>
-    <t>谢鼎恩</t>
-  </si>
-  <si>
-    <t>15622096636</t>
-  </si>
-  <si>
-    <t>姜禄</t>
-  </si>
-  <si>
-    <t>17699203836</t>
-  </si>
-  <si>
-    <t>16620800246</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:42:14</t>
-  </si>
-  <si>
-    <t>15053293066</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:31:54</t>
-  </si>
-  <si>
-    <t>15181481836</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:38:25</t>
-  </si>
-  <si>
-    <t>13466938831</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:11:42</t>
-  </si>
-  <si>
-    <t>13172057687</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:06:47</t>
-  </si>
-  <si>
-    <t>15775695370</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:48:18</t>
-  </si>
-  <si>
-    <t>18655166593</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:20:09</t>
-  </si>
-  <si>
-    <t>王树清</t>
-  </si>
-  <si>
-    <t>17773102683</t>
-  </si>
-  <si>
-    <t>徐来平</t>
-  </si>
-  <si>
-    <t>13603980397</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:17:30</t>
-  </si>
-  <si>
-    <t>18200662041</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:29:17</t>
-  </si>
-  <si>
-    <t>15358385389</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:34:14</t>
-  </si>
-  <si>
-    <t>18278987161</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:16:50</t>
-  </si>
-  <si>
-    <t>肖美峰</t>
-  </si>
-  <si>
-    <t>18373843580</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:58:45</t>
-  </si>
-  <si>
-    <t>雷迅</t>
-  </si>
-  <si>
-    <t>13627607779</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:21:26</t>
-  </si>
-  <si>
-    <t>18116510612</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:26:57</t>
-  </si>
-  <si>
-    <t>15976996146</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:23:36</t>
-  </si>
-  <si>
-    <t>15958024723</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:37:41</t>
-  </si>
-  <si>
-    <t>叶亮辉</t>
-  </si>
-  <si>
-    <t>13926530192</t>
-  </si>
-  <si>
-    <t>17796420578</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:21:28</t>
-  </si>
-  <si>
-    <t>13557572755</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:53:41</t>
-  </si>
-  <si>
-    <t>13591007770</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:13:40</t>
-  </si>
-  <si>
-    <t>袁勋</t>
-  </si>
-  <si>
-    <t>18975594224</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:31:51</t>
-  </si>
-  <si>
-    <t>15709141637</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:23:55</t>
-  </si>
-  <si>
-    <t>15185516506</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:13:38</t>
-  </si>
-  <si>
-    <t>13421644078</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:01:55</t>
-  </si>
-  <si>
-    <t>王亚铄</t>
-  </si>
-  <si>
-    <t>17703779542</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:07:55</t>
-  </si>
-  <si>
-    <t>18550436606</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:45:56</t>
-  </si>
-  <si>
-    <t>13919273124</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:06:19</t>
-  </si>
-  <si>
-    <t>顾进</t>
-  </si>
-  <si>
-    <t>17368634091</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:03:56</t>
-  </si>
-  <si>
-    <t>左健鑫</t>
-  </si>
-  <si>
-    <t>18782346496</t>
-  </si>
-  <si>
-    <t>15999985651</t>
-  </si>
-  <si>
-    <t>程晓灵</t>
-  </si>
-  <si>
-    <t>18218086922</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:17:16</t>
-  </si>
-  <si>
-    <t>18849279856</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:58:13</t>
-  </si>
-  <si>
-    <t>17691023883</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:26:27</t>
-  </si>
-  <si>
-    <t>15207933328</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:12:58</t>
-  </si>
-  <si>
-    <t>18716194197</t>
-  </si>
-  <si>
-    <t>周文平</t>
-  </si>
-  <si>
-    <t>17365758561</t>
-  </si>
-  <si>
-    <t>向玥华</t>
-  </si>
-  <si>
-    <t>15817001436</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:20:56</t>
-  </si>
-  <si>
-    <t>李小翠</t>
-  </si>
-  <si>
-    <t>18318691369</t>
-  </si>
-  <si>
-    <t>441881198510073420</t>
-  </si>
-  <si>
-    <t>广东省清远市清新县诚信街南1号B幢首层101</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:30:47</t>
-  </si>
-  <si>
-    <t>13672410755</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:30:31</t>
-  </si>
-  <si>
-    <t>陈乐园</t>
-  </si>
-  <si>
-    <t>15025584482</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:02:01</t>
-  </si>
-  <si>
-    <t>刘启杰</t>
-  </si>
-  <si>
-    <t>17536194817</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:54:20</t>
-  </si>
-  <si>
-    <t>15260865110</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:18:27</t>
-  </si>
-  <si>
-    <t>15097946684</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:04:12</t>
-  </si>
-  <si>
-    <t>程红</t>
-  </si>
-  <si>
-    <t>13971189932</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:32:58</t>
-  </si>
-  <si>
-    <t>18786681906</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:36:19</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:41:35</t>
-  </si>
-  <si>
-    <t>肖文明</t>
-  </si>
-  <si>
-    <t>13717081280</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:56:52</t>
-  </si>
-  <si>
-    <t>王西秀</t>
-  </si>
-  <si>
-    <t>15853851274</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:21:08</t>
-  </si>
-  <si>
-    <t>18588444257</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:20:14</t>
-  </si>
-  <si>
-    <t>陈建鹏</t>
-  </si>
-  <si>
-    <t>15070073378</t>
-  </si>
-  <si>
-    <t>陈晓晓</t>
-  </si>
-  <si>
-    <t>18301278233</t>
-  </si>
-  <si>
-    <t>220621199407290748</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:09:54</t>
-  </si>
-  <si>
-    <t>肖月贵</t>
-  </si>
-  <si>
-    <t>18959471616</t>
-  </si>
-  <si>
-    <t>高夕紫</t>
-  </si>
-  <si>
-    <t>19913705656</t>
-  </si>
-  <si>
-    <t>2019-01-12 08:26:35</t>
-  </si>
-  <si>
-    <t>2019-01-12 07:20:20</t>
   </si>
 </sst>
 </file>
@@ -2279,20 +1460,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="sheet1"/>
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection sqref="A1:XFD108"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A245" sqref="A139:XFD245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2301,15 +1482,15 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -2318,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2335,15 +1516,15 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -2352,15 +1533,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -2369,15 +1550,15 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2386,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -2403,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -2420,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2428,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -2437,15 +1618,15 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2454,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2471,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2479,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2488,15 +1669,15 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -2505,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2513,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -2522,15 +1703,15 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -2539,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2547,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2556,24 +1737,24 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2581,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2590,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2598,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -2607,15 +1788,15 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -2624,15 +1805,15 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -2641,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2649,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -2658,15 +1839,15 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -2675,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2683,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -2692,15 +1873,15 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -2709,15 +1890,15 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -2726,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2734,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -2743,15 +1924,15 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -2760,15 +1941,15 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -2777,15 +1958,15 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -2794,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2802,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -2811,15 +1992,15 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -2828,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2836,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -2845,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2853,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -2862,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -2879,15 +2060,15 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -2896,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2904,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -2913,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2921,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -2930,15 +2111,15 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -2947,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2955,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -2964,32 +2145,32 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -2998,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3006,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -3015,15 +2196,15 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -3032,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3040,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -3049,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -3066,15 +2247,15 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -3083,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3091,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -3100,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3108,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -3117,15 +2298,15 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -3134,15 +2315,15 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -3151,15 +2332,15 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
@@ -3168,15 +2349,15 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
@@ -3185,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3193,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -3202,15 +2383,15 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -3219,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3227,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -3236,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3244,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -3253,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3261,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -3270,15 +2451,15 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
@@ -3287,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3295,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
@@ -3304,15 +2485,15 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -3321,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3329,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -3338,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3346,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -3355,15 +2536,15 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -3372,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -3389,15 +2570,15 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -3406,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3414,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -3423,15 +2604,15 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -3440,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3448,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -3457,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3465,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -3474,15 +2655,15 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -3491,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3499,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -3508,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3516,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -3525,15 +2706,15 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B74" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -3542,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -3559,15 +2740,15 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
@@ -3576,15 +2757,15 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
@@ -3593,15 +2774,15 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
@@ -3610,15 +2791,15 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B79" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -3627,15 +2808,15 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
@@ -3644,15 +2825,15 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
@@ -3661,15 +2842,15 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -3678,15 +2859,15 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
@@ -3695,15 +2876,15 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
@@ -3712,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -3729,15 +2910,15 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B86" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
@@ -3746,15 +2927,15 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
@@ -3763,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3771,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -3780,15 +2961,15 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B89" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
@@ -3797,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3805,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -3814,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3822,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
@@ -3831,15 +3012,15 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
@@ -3848,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -3865,15 +3046,15 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -3882,15 +3063,15 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
@@ -3899,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3907,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -3916,15 +3097,15 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -3933,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3941,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -3950,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3958,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
@@ -3967,15 +3148,15 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B100" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -3984,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3992,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
@@ -4001,15 +3182,15 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
@@ -4018,15 +3199,15 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
@@ -4035,15 +3216,15 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B104" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
@@ -4052,15 +3233,15 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B105" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
@@ -4069,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
@@ -4086,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
@@ -4103,15 +3284,15 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -4120,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4128,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
@@ -4137,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4145,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
@@ -4154,15 +3335,15 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="B111" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
@@ -4171,15 +3352,15 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
@@ -4188,15 +3369,15 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="B113" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
@@ -4205,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4213,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -4222,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4230,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -4239,15 +3420,15 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B116" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C116" t="s">
         <v>0</v>
@@ -4256,15 +3437,15 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B117" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
@@ -4273,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4281,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
@@ -4290,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4298,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
@@ -4307,15 +3488,15 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="B120" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
@@ -4324,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4332,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
@@ -4341,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4349,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
@@ -4358,15 +3539,15 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="B123" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="C123" t="s">
         <v>0</v>
@@ -4375,15 +3556,15 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="B124" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="C124" t="s">
         <v>0</v>
@@ -4392,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4400,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="C125" t="s">
         <v>0</v>
@@ -4409,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4417,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="C126" t="s">
         <v>0</v>
@@ -4426,15 +3607,15 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B127" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
@@ -4443,15 +3624,15 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="B128" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="C128" t="s">
         <v>0</v>
@@ -4460,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4468,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
@@ -4477,15 +3658,15 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="B130" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
@@ -4494,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4502,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="C131" t="s">
         <v>0</v>
@@ -4511,15 +3692,15 @@
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="C132" t="s">
         <v>0</v>
@@ -4528,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4536,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="C133" t="s">
         <v>0</v>
@@ -4545,15 +3726,15 @@
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
         <v>0</v>
@@ -4562,15 +3743,15 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="B135" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="C135" t="s">
         <v>0</v>
@@ -4579,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="C136" t="s">
         <v>0</v>
@@ -4596,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4604,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="C137" t="s">
         <v>0</v>
@@ -4613,15 +3794,15 @@
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B138" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="C138" t="s">
         <v>0</v>
@@ -4630,1826 +3811,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" t="s">
-        <v>378</v>
-      </c>
-      <c r="C139" t="s">
-        <v>0</v>
-      </c>
-      <c r="D139" t="s">
-        <v>0</v>
-      </c>
-      <c r="E139" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" t="s">
-        <v>380</v>
-      </c>
-      <c r="C140" t="s">
-        <v>0</v>
-      </c>
-      <c r="D140" t="s">
-        <v>0</v>
-      </c>
-      <c r="E140" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>382</v>
-      </c>
-      <c r="B141" t="s">
-        <v>383</v>
-      </c>
-      <c r="C141" t="s">
-        <v>0</v>
-      </c>
-      <c r="D141" t="s">
-        <v>0</v>
-      </c>
-      <c r="E141" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" t="s">
-        <v>385</v>
-      </c>
-      <c r="C142" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" t="s">
-        <v>0</v>
-      </c>
-      <c r="E142" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" t="s">
-        <v>387</v>
-      </c>
-      <c r="C143" t="s">
-        <v>0</v>
-      </c>
-      <c r="D143" t="s">
-        <v>0</v>
-      </c>
-      <c r="E143" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" t="s">
-        <v>389</v>
-      </c>
-      <c r="C144" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" t="s">
-        <v>0</v>
-      </c>
-      <c r="E144" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" t="s">
-        <v>391</v>
-      </c>
-      <c r="C145" t="s">
-        <v>0</v>
-      </c>
-      <c r="D145" t="s">
-        <v>0</v>
-      </c>
-      <c r="E145" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" t="s">
-        <v>393</v>
-      </c>
-      <c r="C146" t="s">
-        <v>0</v>
-      </c>
-      <c r="D146" t="s">
-        <v>0</v>
-      </c>
-      <c r="E146" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>395</v>
-      </c>
-      <c r="B147" t="s">
-        <v>396</v>
-      </c>
-      <c r="C147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" t="s">
-        <v>0</v>
-      </c>
-      <c r="E147" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" t="s">
-        <v>398</v>
-      </c>
-      <c r="C148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" t="s">
-        <v>0</v>
-      </c>
-      <c r="E148" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" t="s">
-        <v>400</v>
-      </c>
-      <c r="C149" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" t="s">
-        <v>0</v>
-      </c>
-      <c r="E149" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>402</v>
-      </c>
-      <c r="B150" t="s">
-        <v>403</v>
-      </c>
-      <c r="C150" t="s">
-        <v>0</v>
-      </c>
-      <c r="D150" t="s">
-        <v>0</v>
-      </c>
-      <c r="E150" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>405</v>
-      </c>
-      <c r="B151" t="s">
-        <v>406</v>
-      </c>
-      <c r="C151" t="s">
-        <v>0</v>
-      </c>
-      <c r="D151" t="s">
-        <v>0</v>
-      </c>
-      <c r="E151" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" t="s">
-        <v>408</v>
-      </c>
-      <c r="C152" t="s">
-        <v>0</v>
-      </c>
-      <c r="D152" t="s">
-        <v>0</v>
-      </c>
-      <c r="E152" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>24</v>
-      </c>
-      <c r="B153" t="s">
-        <v>25</v>
-      </c>
-      <c r="C153" t="s">
-        <v>0</v>
-      </c>
-      <c r="D153" t="s">
-        <v>0</v>
-      </c>
-      <c r="E153" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" t="s">
-        <v>410</v>
-      </c>
-      <c r="C154" t="s">
-        <v>0</v>
-      </c>
-      <c r="D154" t="s">
-        <v>0</v>
-      </c>
-      <c r="E154" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>411</v>
-      </c>
-      <c r="B155" t="s">
-        <v>412</v>
-      </c>
-      <c r="C155" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" t="s">
-        <v>0</v>
-      </c>
-      <c r="E155" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" t="s">
-        <v>414</v>
-      </c>
-      <c r="C156" t="s">
-        <v>0</v>
-      </c>
-      <c r="D156" t="s">
-        <v>0</v>
-      </c>
-      <c r="E156" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>416</v>
-      </c>
-      <c r="B157" t="s">
-        <v>417</v>
-      </c>
-      <c r="C157" t="s">
-        <v>0</v>
-      </c>
-      <c r="D157" t="s">
-        <v>0</v>
-      </c>
-      <c r="E157" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" t="s">
-        <v>418</v>
-      </c>
-      <c r="C158" t="s">
-        <v>0</v>
-      </c>
-      <c r="D158" t="s">
-        <v>0</v>
-      </c>
-      <c r="E158" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" t="s">
-        <v>420</v>
-      </c>
-      <c r="C159" t="s">
-        <v>0</v>
-      </c>
-      <c r="D159" t="s">
-        <v>0</v>
-      </c>
-      <c r="E159" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>422</v>
-      </c>
-      <c r="B160" t="s">
-        <v>423</v>
-      </c>
-      <c r="C160" t="s">
-        <v>424</v>
-      </c>
-      <c r="D160" t="s">
-        <v>425</v>
-      </c>
-      <c r="E160" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>427</v>
-      </c>
-      <c r="B161" t="s">
-        <v>428</v>
-      </c>
-      <c r="C161" t="s">
-        <v>0</v>
-      </c>
-      <c r="D161" t="s">
-        <v>0</v>
-      </c>
-      <c r="E161" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B162" t="s">
-        <v>430</v>
-      </c>
-      <c r="C162" t="s">
-        <v>0</v>
-      </c>
-      <c r="D162" t="s">
-        <v>0</v>
-      </c>
-      <c r="E162" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>432</v>
-      </c>
-      <c r="B163" t="s">
-        <v>433</v>
-      </c>
-      <c r="C163" t="s">
-        <v>0</v>
-      </c>
-      <c r="D163" t="s">
-        <v>0</v>
-      </c>
-      <c r="E163" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" t="s">
-        <v>434</v>
-      </c>
-      <c r="C164" t="s">
-        <v>0</v>
-      </c>
-      <c r="D164" t="s">
-        <v>0</v>
-      </c>
-      <c r="E164" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>436</v>
-      </c>
-      <c r="B165" t="s">
-        <v>437</v>
-      </c>
-      <c r="C165" t="s">
-        <v>0</v>
-      </c>
-      <c r="D165" t="s">
-        <v>0</v>
-      </c>
-      <c r="E165" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>439</v>
-      </c>
-      <c r="B166" t="s">
-        <v>440</v>
-      </c>
-      <c r="C166" t="s">
-        <v>0</v>
-      </c>
-      <c r="D166" t="s">
-        <v>0</v>
-      </c>
-      <c r="E166" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>442</v>
-      </c>
-      <c r="B167" t="s">
-        <v>443</v>
-      </c>
-      <c r="C167" t="s">
-        <v>0</v>
-      </c>
-      <c r="D167" t="s">
-        <v>0</v>
-      </c>
-      <c r="E167" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>445</v>
-      </c>
-      <c r="B168" t="s">
-        <v>446</v>
-      </c>
-      <c r="C168" t="s">
-        <v>0</v>
-      </c>
-      <c r="D168" t="s">
-        <v>0</v>
-      </c>
-      <c r="E168" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>448</v>
-      </c>
-      <c r="B169" t="s">
-        <v>449</v>
-      </c>
-      <c r="C169" t="s">
-        <v>0</v>
-      </c>
-      <c r="D169" t="s">
-        <v>0</v>
-      </c>
-      <c r="E169" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>451</v>
-      </c>
-      <c r="B170" t="s">
-        <v>452</v>
-      </c>
-      <c r="C170" t="s">
-        <v>0</v>
-      </c>
-      <c r="D170" t="s">
-        <v>0</v>
-      </c>
-      <c r="E170" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>454</v>
-      </c>
-      <c r="B171" t="s">
-        <v>455</v>
-      </c>
-      <c r="C171" t="s">
-        <v>0</v>
-      </c>
-      <c r="D171" t="s">
-        <v>0</v>
-      </c>
-      <c r="E171" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>457</v>
-      </c>
-      <c r="B172" t="s">
-        <v>458</v>
-      </c>
-      <c r="C172" t="s">
-        <v>0</v>
-      </c>
-      <c r="D172" t="s">
-        <v>0</v>
-      </c>
-      <c r="E172" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>459</v>
-      </c>
-      <c r="B173" t="s">
-        <v>460</v>
-      </c>
-      <c r="C173" t="s">
-        <v>0</v>
-      </c>
-      <c r="D173" t="s">
-        <v>0</v>
-      </c>
-      <c r="E173" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" t="s">
-        <v>462</v>
-      </c>
-      <c r="C174" t="s">
-        <v>0</v>
-      </c>
-      <c r="D174" t="s">
-        <v>0</v>
-      </c>
-      <c r="E174" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>464</v>
-      </c>
-      <c r="B175" t="s">
-        <v>465</v>
-      </c>
-      <c r="C175" t="s">
-        <v>0</v>
-      </c>
-      <c r="D175" t="s">
-        <v>0</v>
-      </c>
-      <c r="E175" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" t="s">
-        <v>467</v>
-      </c>
-      <c r="C176" t="s">
-        <v>0</v>
-      </c>
-      <c r="D176" t="s">
-        <v>0</v>
-      </c>
-      <c r="E176" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>468</v>
-      </c>
-      <c r="B177" t="s">
-        <v>469</v>
-      </c>
-      <c r="C177" t="s">
-        <v>0</v>
-      </c>
-      <c r="D177" t="s">
-        <v>0</v>
-      </c>
-      <c r="E177" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>471</v>
-      </c>
-      <c r="B178" t="s">
-        <v>472</v>
-      </c>
-      <c r="C178" t="s">
-        <v>0</v>
-      </c>
-      <c r="D178" t="s">
-        <v>0</v>
-      </c>
-      <c r="E178" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" t="s">
-        <v>474</v>
-      </c>
-      <c r="C179" t="s">
-        <v>0</v>
-      </c>
-      <c r="D179" t="s">
-        <v>0</v>
-      </c>
-      <c r="E179" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" t="s">
-        <v>476</v>
-      </c>
-      <c r="C180" t="s">
-        <v>0</v>
-      </c>
-      <c r="D180" t="s">
-        <v>0</v>
-      </c>
-      <c r="E180" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>478</v>
-      </c>
-      <c r="B181" t="s">
-        <v>479</v>
-      </c>
-      <c r="C181" t="s">
-        <v>0</v>
-      </c>
-      <c r="D181" t="s">
-        <v>0</v>
-      </c>
-      <c r="E181" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>481</v>
-      </c>
-      <c r="B182" t="s">
-        <v>482</v>
-      </c>
-      <c r="C182" t="s">
-        <v>0</v>
-      </c>
-      <c r="D182" t="s">
-        <v>0</v>
-      </c>
-      <c r="E182" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>484</v>
-      </c>
-      <c r="B183" t="s">
-        <v>485</v>
-      </c>
-      <c r="C183" t="s">
-        <v>0</v>
-      </c>
-      <c r="D183" t="s">
-        <v>0</v>
-      </c>
-      <c r="E183" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B184" t="s">
-        <v>487</v>
-      </c>
-      <c r="C184" t="s">
-        <v>0</v>
-      </c>
-      <c r="D184" t="s">
-        <v>0</v>
-      </c>
-      <c r="E184" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>488</v>
-      </c>
-      <c r="B185" t="s">
-        <v>489</v>
-      </c>
-      <c r="C185" t="s">
-        <v>0</v>
-      </c>
-      <c r="D185" t="s">
-        <v>0</v>
-      </c>
-      <c r="E185" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>491</v>
-      </c>
-      <c r="B186" t="s">
-        <v>492</v>
-      </c>
-      <c r="C186" t="s">
-        <v>0</v>
-      </c>
-      <c r="D186" t="s">
-        <v>0</v>
-      </c>
-      <c r="E186" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187" t="s">
-        <v>494</v>
-      </c>
-      <c r="C187" t="s">
-        <v>0</v>
-      </c>
-      <c r="D187" t="s">
-        <v>0</v>
-      </c>
-      <c r="E187" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>496</v>
-      </c>
-      <c r="B188" t="s">
-        <v>497</v>
-      </c>
-      <c r="C188" t="s">
-        <v>0</v>
-      </c>
-      <c r="D188" t="s">
-        <v>0</v>
-      </c>
-      <c r="E188" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>498</v>
-      </c>
-      <c r="B189" t="s">
-        <v>499</v>
-      </c>
-      <c r="C189" t="s">
-        <v>0</v>
-      </c>
-      <c r="D189" t="s">
-        <v>0</v>
-      </c>
-      <c r="E189" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190" t="s">
-        <v>500</v>
-      </c>
-      <c r="C190" t="s">
-        <v>0</v>
-      </c>
-      <c r="D190" t="s">
-        <v>0</v>
-      </c>
-      <c r="E190" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" t="s">
-        <v>502</v>
-      </c>
-      <c r="C191" t="s">
-        <v>0</v>
-      </c>
-      <c r="D191" t="s">
-        <v>0</v>
-      </c>
-      <c r="E191" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192" t="s">
-        <v>504</v>
-      </c>
-      <c r="C192" t="s">
-        <v>0</v>
-      </c>
-      <c r="D192" t="s">
-        <v>0</v>
-      </c>
-      <c r="E192" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" t="s">
-        <v>506</v>
-      </c>
-      <c r="C193" t="s">
-        <v>0</v>
-      </c>
-      <c r="D193" t="s">
-        <v>0</v>
-      </c>
-      <c r="E193" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194" t="s">
-        <v>508</v>
-      </c>
-      <c r="C194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D194" t="s">
-        <v>0</v>
-      </c>
-      <c r="E194" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" t="s">
-        <v>510</v>
-      </c>
-      <c r="C195" t="s">
-        <v>0</v>
-      </c>
-      <c r="D195" t="s">
-        <v>0</v>
-      </c>
-      <c r="E195" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196" t="s">
-        <v>512</v>
-      </c>
-      <c r="C196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D196" t="s">
-        <v>0</v>
-      </c>
-      <c r="E196" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>514</v>
-      </c>
-      <c r="B197" t="s">
-        <v>515</v>
-      </c>
-      <c r="C197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D197" t="s">
-        <v>0</v>
-      </c>
-      <c r="E197" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>516</v>
-      </c>
-      <c r="B198" t="s">
-        <v>517</v>
-      </c>
-      <c r="C198" t="s">
-        <v>0</v>
-      </c>
-      <c r="D198" t="s">
-        <v>0</v>
-      </c>
-      <c r="E198" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B199" t="s">
-        <v>519</v>
-      </c>
-      <c r="C199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D199" t="s">
-        <v>0</v>
-      </c>
-      <c r="E199" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200" t="s">
-        <v>521</v>
-      </c>
-      <c r="C200" t="s">
-        <v>0</v>
-      </c>
-      <c r="D200" t="s">
-        <v>0</v>
-      </c>
-      <c r="E200" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B201" t="s">
-        <v>523</v>
-      </c>
-      <c r="C201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D201" t="s">
-        <v>0</v>
-      </c>
-      <c r="E201" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>525</v>
-      </c>
-      <c r="B202" t="s">
-        <v>526</v>
-      </c>
-      <c r="C202" t="s">
-        <v>0</v>
-      </c>
-      <c r="D202" t="s">
-        <v>0</v>
-      </c>
-      <c r="E202" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>528</v>
-      </c>
-      <c r="B203" t="s">
-        <v>529</v>
-      </c>
-      <c r="C203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D203" t="s">
-        <v>0</v>
-      </c>
-      <c r="E203" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" t="s">
-        <v>531</v>
-      </c>
-      <c r="C204" t="s">
-        <v>0</v>
-      </c>
-      <c r="D204" t="s">
-        <v>0</v>
-      </c>
-      <c r="E204" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205" t="s">
-        <v>533</v>
-      </c>
-      <c r="C205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D205" t="s">
-        <v>0</v>
-      </c>
-      <c r="E205" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206" t="s">
-        <v>535</v>
-      </c>
-      <c r="C206" t="s">
-        <v>0</v>
-      </c>
-      <c r="D206" t="s">
-        <v>0</v>
-      </c>
-      <c r="E206" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>537</v>
-      </c>
-      <c r="B207" t="s">
-        <v>538</v>
-      </c>
-      <c r="C207" t="s">
-        <v>0</v>
-      </c>
-      <c r="D207" t="s">
-        <v>0</v>
-      </c>
-      <c r="E207" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208" t="s">
-        <v>539</v>
-      </c>
-      <c r="C208" t="s">
-        <v>0</v>
-      </c>
-      <c r="D208" t="s">
-        <v>0</v>
-      </c>
-      <c r="E208" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>0</v>
-      </c>
-      <c r="B209" t="s">
-        <v>541</v>
-      </c>
-      <c r="C209" t="s">
-        <v>0</v>
-      </c>
-      <c r="D209" t="s">
-        <v>0</v>
-      </c>
-      <c r="E209" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210" t="s">
-        <v>543</v>
-      </c>
-      <c r="C210" t="s">
-        <v>0</v>
-      </c>
-      <c r="D210" t="s">
-        <v>0</v>
-      </c>
-      <c r="E210" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>545</v>
-      </c>
-      <c r="B211" t="s">
-        <v>546</v>
-      </c>
-      <c r="C211" t="s">
-        <v>0</v>
-      </c>
-      <c r="D211" t="s">
-        <v>0</v>
-      </c>
-      <c r="E211" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>0</v>
-      </c>
-      <c r="B212" t="s">
-        <v>548</v>
-      </c>
-      <c r="C212" t="s">
-        <v>0</v>
-      </c>
-      <c r="D212" t="s">
-        <v>0</v>
-      </c>
-      <c r="E212" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>0</v>
-      </c>
-      <c r="B213" t="s">
-        <v>550</v>
-      </c>
-      <c r="C213" t="s">
-        <v>0</v>
-      </c>
-      <c r="D213" t="s">
-        <v>0</v>
-      </c>
-      <c r="E213" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>0</v>
-      </c>
-      <c r="B214" t="s">
-        <v>552</v>
-      </c>
-      <c r="C214" t="s">
-        <v>0</v>
-      </c>
-      <c r="D214" t="s">
-        <v>0</v>
-      </c>
-      <c r="E214" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>554</v>
-      </c>
-      <c r="B215" t="s">
-        <v>555</v>
-      </c>
-      <c r="C215" t="s">
-        <v>0</v>
-      </c>
-      <c r="D215" t="s">
-        <v>0</v>
-      </c>
-      <c r="E215" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>0</v>
-      </c>
-      <c r="B216" t="s">
-        <v>557</v>
-      </c>
-      <c r="C216" t="s">
-        <v>0</v>
-      </c>
-      <c r="D216" t="s">
-        <v>0</v>
-      </c>
-      <c r="E216" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B217" t="s">
-        <v>559</v>
-      </c>
-      <c r="C217" t="s">
-        <v>0</v>
-      </c>
-      <c r="D217" t="s">
-        <v>0</v>
-      </c>
-      <c r="E217" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>561</v>
-      </c>
-      <c r="B218" t="s">
-        <v>562</v>
-      </c>
-      <c r="C218" t="s">
-        <v>0</v>
-      </c>
-      <c r="D218" t="s">
-        <v>0</v>
-      </c>
-      <c r="E218" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>564</v>
-      </c>
-      <c r="B219" t="s">
-        <v>565</v>
-      </c>
-      <c r="C219" t="s">
-        <v>0</v>
-      </c>
-      <c r="D219" t="s">
-        <v>0</v>
-      </c>
-      <c r="E219" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>0</v>
-      </c>
-      <c r="B220" t="s">
-        <v>566</v>
-      </c>
-      <c r="C220" t="s">
-        <v>0</v>
-      </c>
-      <c r="D220" t="s">
-        <v>0</v>
-      </c>
-      <c r="E220" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>567</v>
-      </c>
-      <c r="B221" t="s">
-        <v>568</v>
-      </c>
-      <c r="C221" t="s">
-        <v>0</v>
-      </c>
-      <c r="D221" t="s">
-        <v>0</v>
-      </c>
-      <c r="E221" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>2</v>
-      </c>
-      <c r="B222" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222" t="s">
-        <v>0</v>
-      </c>
-      <c r="D222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E222" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>0</v>
-      </c>
-      <c r="B223" t="s">
-        <v>570</v>
-      </c>
-      <c r="C223" t="s">
-        <v>0</v>
-      </c>
-      <c r="D223" t="s">
-        <v>0</v>
-      </c>
-      <c r="E223" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>0</v>
-      </c>
-      <c r="B224" t="s">
-        <v>572</v>
-      </c>
-      <c r="C224" t="s">
-        <v>0</v>
-      </c>
-      <c r="D224" t="s">
-        <v>0</v>
-      </c>
-      <c r="E224" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>36</v>
-      </c>
-      <c r="B225" t="s">
-        <v>574</v>
-      </c>
-      <c r="C225" t="s">
-        <v>0</v>
-      </c>
-      <c r="D225" t="s">
-        <v>0</v>
-      </c>
-      <c r="E225" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>0</v>
-      </c>
-      <c r="B226" t="s">
-        <v>576</v>
-      </c>
-      <c r="C226" t="s">
-        <v>0</v>
-      </c>
-      <c r="D226" t="s">
-        <v>0</v>
-      </c>
-      <c r="E226" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>577</v>
-      </c>
-      <c r="B227" t="s">
-        <v>578</v>
-      </c>
-      <c r="C227" t="s">
-        <v>0</v>
-      </c>
-      <c r="D227" t="s">
-        <v>0</v>
-      </c>
-      <c r="E227" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>579</v>
-      </c>
-      <c r="B228" t="s">
-        <v>580</v>
-      </c>
-      <c r="C228" t="s">
-        <v>0</v>
-      </c>
-      <c r="D228" t="s">
-        <v>0</v>
-      </c>
-      <c r="E228" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>582</v>
-      </c>
-      <c r="B229" t="s">
-        <v>583</v>
-      </c>
-      <c r="C229" t="s">
-        <v>584</v>
-      </c>
-      <c r="D229" t="s">
-        <v>585</v>
-      </c>
-      <c r="E229" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>0</v>
-      </c>
-      <c r="B230" t="s">
-        <v>587</v>
-      </c>
-      <c r="C230" t="s">
-        <v>0</v>
-      </c>
-      <c r="D230" t="s">
-        <v>0</v>
-      </c>
-      <c r="E230" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>589</v>
-      </c>
-      <c r="B231" t="s">
-        <v>590</v>
-      </c>
-      <c r="C231" t="s">
-        <v>0</v>
-      </c>
-      <c r="D231" t="s">
-        <v>0</v>
-      </c>
-      <c r="E231" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>592</v>
-      </c>
-      <c r="B232" t="s">
-        <v>593</v>
-      </c>
-      <c r="C232" t="s">
-        <v>0</v>
-      </c>
-      <c r="D232" t="s">
-        <v>0</v>
-      </c>
-      <c r="E232" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>0</v>
-      </c>
-      <c r="B233" t="s">
-        <v>595</v>
-      </c>
-      <c r="C233" t="s">
-        <v>0</v>
-      </c>
-      <c r="D233" t="s">
-        <v>0</v>
-      </c>
-      <c r="E233" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>0</v>
-      </c>
-      <c r="B234" t="s">
-        <v>597</v>
-      </c>
-      <c r="C234" t="s">
-        <v>0</v>
-      </c>
-      <c r="D234" t="s">
-        <v>0</v>
-      </c>
-      <c r="E234" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>599</v>
-      </c>
-      <c r="B235" t="s">
-        <v>600</v>
-      </c>
-      <c r="C235" t="s">
-        <v>0</v>
-      </c>
-      <c r="D235" t="s">
-        <v>0</v>
-      </c>
-      <c r="E235" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>0</v>
-      </c>
-      <c r="B236" t="s">
-        <v>602</v>
-      </c>
-      <c r="C236" t="s">
-        <v>0</v>
-      </c>
-      <c r="D236" t="s">
-        <v>0</v>
-      </c>
-      <c r="E236" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>63</v>
-      </c>
-      <c r="B237" t="s">
-        <v>64</v>
-      </c>
-      <c r="C237" t="s">
-        <v>0</v>
-      </c>
-      <c r="D237" t="s">
-        <v>0</v>
-      </c>
-      <c r="E237" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>605</v>
-      </c>
-      <c r="B238" t="s">
-        <v>606</v>
-      </c>
-      <c r="C238" t="s">
-        <v>0</v>
-      </c>
-      <c r="D238" t="s">
-        <v>0</v>
-      </c>
-      <c r="E238" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>608</v>
-      </c>
-      <c r="B239" t="s">
-        <v>609</v>
-      </c>
-      <c r="C239" t="s">
-        <v>0</v>
-      </c>
-      <c r="D239" t="s">
-        <v>0</v>
-      </c>
-      <c r="E239" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>0</v>
-      </c>
-      <c r="B240" t="s">
-        <v>611</v>
-      </c>
-      <c r="C240" t="s">
-        <v>0</v>
-      </c>
-      <c r="D240" t="s">
-        <v>0</v>
-      </c>
-      <c r="E240" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>613</v>
-      </c>
-      <c r="B241" t="s">
-        <v>614</v>
-      </c>
-      <c r="C241" t="s">
-        <v>0</v>
-      </c>
-      <c r="D241" t="s">
-        <v>0</v>
-      </c>
-      <c r="E241" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>615</v>
-      </c>
-      <c r="B242" t="s">
-        <v>616</v>
-      </c>
-      <c r="C242" t="s">
-        <v>617</v>
-      </c>
-      <c r="D242" t="s">
-        <v>0</v>
-      </c>
-      <c r="E242" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>619</v>
-      </c>
-      <c r="B243" t="s">
-        <v>620</v>
-      </c>
-      <c r="C243" t="s">
-        <v>0</v>
-      </c>
-      <c r="D243" t="s">
-        <v>0</v>
-      </c>
-      <c r="E243" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>621</v>
-      </c>
-      <c r="B244" t="s">
-        <v>622</v>
-      </c>
-      <c r="C244" t="s">
-        <v>0</v>
-      </c>
-      <c r="D244" t="s">
-        <v>0</v>
-      </c>
-      <c r="E244" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>60</v>
-      </c>
-      <c r="B245" t="s">
-        <v>61</v>
-      </c>
-      <c r="C245" t="s">
-        <v>0</v>
-      </c>
-      <c r="D245" t="s">
-        <v>0</v>
-      </c>
-      <c r="E245" t="s">
-        <v>624</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
